--- a/cashflow_p&l_files/timesheet.xlsx
+++ b/cashflow_p&l_files/timesheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynebruton/PycharmProjects/loanAgreementTest/cashflow_p&amp;l_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBD914C6-11CE-694A-99E5-6D63E7F7D47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF4F06-4D85-874D-9A15-312C9A7CAD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{A4930DB4-056F-584E-A9A3-7AC6958EE815}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{A4930DB4-056F-584E-A9A3-7AC6958EE815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Changes to NSST Goodwood &amp; Heron per Devin Emails 30/9</t>
+  </si>
+  <si>
+    <t>Python Changes to Numpy</t>
+  </si>
+  <si>
+    <t>Changes to Pdf Uploads - Hereoku</t>
+  </si>
+  <si>
+    <t>Changes to NSST Projection - Devin Email 03 October 2024</t>
   </si>
 </sst>
 </file>
@@ -65,7 +74,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -104,10 +113,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -444,37 +452,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A5AB78-6ADF-6946-AF5B-A7543C9B4884}">
-  <dimension ref="B1:G2"/>
+  <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="10.83203125" style="3"/>
-    <col min="7" max="7" width="49.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -482,22 +489,88 @@
       <c r="B2" s="1">
         <v>45566</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <f>D2-C2</f>
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>E2*900</f>
         <v>3600</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>45567</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <f>D3-C3</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3*900</f>
+        <v>1800</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>45568</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f>D4-C4</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <f>E4*900</f>
+        <v>1800</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>45568</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>D5-C5</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <f>E5*900</f>
+        <v>900</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/cashflow_p&l_files/timesheet.xlsx
+++ b/cashflow_p&l_files/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynebruton/PycharmProjects/loanAgreementTest/cashflow_p&amp;l_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF4F06-4D85-874D-9A15-312C9A7CAD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C913959A-1A68-724E-8B9C-A7EF3145B7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{A4930DB4-056F-584E-A9A3-7AC6958EE815}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,15 +559,15 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E5">
         <f>D5-C5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="2">
         <f>E5*900</f>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
